--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2199.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2199.xlsx
@@ -354,7 +354,7 @@
         <v>1.749447257307162</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.794035641876094</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2199.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2199.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.039785141523108</v>
+        <v>0.8490044474601746</v>
       </c>
       <c r="B1">
-        <v>1.749447257307162</v>
+        <v>1.512098670005798</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.221972942352295</v>
       </c>
       <c r="D1">
-        <v>1.794035641876094</v>
+        <v>2.935715913772583</v>
       </c>
       <c r="E1">
-        <v>1.025210537850784</v>
+        <v>1.600641012191772</v>
       </c>
     </row>
   </sheetData>
